--- a/SP_Sklad/TempLate/Oborotka.xlsx
+++ b/SP_Sklad/TempLate/Oborotka.xlsx
@@ -10,18 +10,18 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$N$14</definedName>
-    <definedName name="MatList">Лист1!$A$12:$N$13</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$N$13</definedName>
+    <definedName name="MatList">Лист1!$A$11:$N$12</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>sum</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>ОБІГОВА ВІДОМІСТЬ ТОВАРО-МАТЕРІАЛЬНИХ ЦІННОСТЕЙ</t>
+  </si>
+  <si>
+    <t>sum_SummStart</t>
+  </si>
+  <si>
+    <t>sum_SummIn</t>
+  </si>
+  <si>
+    <t>sum_SummOut</t>
+  </si>
+  <si>
+    <t>sum_SummEnd</t>
   </si>
 </sst>
 </file>
@@ -211,24 +223,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -320,13 +332,206 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right style="hair">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="23"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="23"/>
+      </left>
+      <right style="hair">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="23"/>
+      </left>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="23"/>
+      </left>
+      <right style="hair">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -335,9 +540,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -348,9 +551,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -364,17 +565,8 @@
       <top style="hair">
         <color indexed="23"/>
       </top>
-      <bottom style="thin">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="55"/>
+      <bottom style="hair">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -384,145 +576,19 @@
       <top style="hair">
         <color indexed="23"/>
       </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="23"/>
-      </left>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
         <color indexed="23"/>
       </right>
       <top style="hair">
         <color indexed="23"/>
       </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="23"/>
-      </left>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="23"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top/>
       <bottom style="hair">
         <color indexed="23"/>
       </bottom>
@@ -532,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,58 +640,22 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,6 +667,15 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,10 +688,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,23 +703,53 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,11 +1121,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1079,21 +1148,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -1163,38 +1232,38 @@
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="48" t="s">
+      <c r="H7" s="35"/>
+      <c r="I7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48" t="s">
+      <c r="J7" s="33"/>
+      <c r="K7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49" t="s">
+      <c r="L7" s="33"/>
+      <c r="M7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="50"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="53"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="20" t="s">
         <v>4</v>
       </c>
@@ -1221,42 +1290,45 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <v>1</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="27">
         <v>2</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="24">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="21">
         <v>3</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="21">
         <v>4</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="21">
         <v>5</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="21">
         <v>6</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="21">
         <v>7</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="21">
         <v>8</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="21">
         <v>9</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="21"/>
+    <row r="10" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="45" t="e">
+        <f>MatGroup_NAME</f>
+        <v>#NAME?</v>
+      </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -1268,95 +1340,102 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="25" t="e">
-        <f>MatGroup_NAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="27"/>
-    </row>
-    <row r="12" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="42" t="e">
+      <c r="B11" s="23" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="60" t="e">
+      <c r="C11" s="30" t="e">
         <f>MatList_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="43" t="e">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="24" t="e">
         <f>MatList_REMAINSTART</f>
         <v>#NAME?</v>
       </c>
-      <c r="H12" s="43" t="e">
+      <c r="H11" s="24" t="e">
         <f>MatList_SummStart</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="43" t="e">
+      <c r="I11" s="24" t="e">
         <f>MatList_AMOUNTIN</f>
         <v>#NAME?</v>
       </c>
-      <c r="J12" s="43" t="e">
+      <c r="J11" s="24" t="e">
         <f>MatList_SUMMIN</f>
         <v>#NAME?</v>
       </c>
-      <c r="K12" s="43" t="e">
+      <c r="K11" s="24" t="e">
         <f>MatList_AMOUNTOUT</f>
         <v>#NAME?</v>
       </c>
-      <c r="L12" s="43" t="e">
+      <c r="L11" s="24" t="e">
         <f>MatList_SUMMOUT</f>
         <v>#NAME?</v>
       </c>
-      <c r="M12" s="44" t="e">
+      <c r="M11" s="25" t="e">
         <f>MatList_REMAINEND</f>
         <v>#NAME?</v>
       </c>
-      <c r="N12" s="44" t="e">
+      <c r="N11" s="26" t="e">
         <f>MatList_SUMMEND</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J12" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="K12" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="L12" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="41"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+    </row>
+    <row r="13" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="50"/>
+      <c r="N13" s="51" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
@@ -1373,69 +1452,38 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="34"/>
+    <row r="16" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
     </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-    </row>
+    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1512,18 +1560,18 @@
     <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+  <mergeCells count="10">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/Oborotka.xlsx
+++ b/SP_Sklad/TempLate/Oborotka.xlsx
@@ -309,17 +309,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="55"/>
       </right>
@@ -490,7 +479,18 @@
         <color indexed="55"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
         <color indexed="55"/>
       </top>
       <bottom style="hair">
@@ -503,57 +503,11 @@
       <right style="hair">
         <color indexed="55"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="55"/>
       </top>
       <bottom style="hair">
         <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="23"/>
-      </left>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,9 +519,7 @@
       <top style="hair">
         <color indexed="23"/>
       </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -576,9 +528,7 @@
       <top style="hair">
         <color indexed="23"/>
       </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -589,8 +539,56 @@
       <top style="hair">
         <color indexed="23"/>
       </top>
-      <bottom style="hair">
-        <color indexed="23"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="23"/>
+      </left>
+      <right style="hair">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,14 +638,11 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -655,17 +650,65 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -673,83 +716,38 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,7 +1123,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1148,21 +1146,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -1232,38 +1230,38 @@
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="34" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="33" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="34" t="s">
+      <c r="L7" s="40"/>
+      <c r="M7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="35"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="38"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="20" t="s">
         <v>4</v>
       </c>
@@ -1290,150 +1288,150 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="21">
+      <c r="B9" s="25">
         <v>1</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="41">
         <v>2</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="21">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="25">
         <v>3</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="25">
         <v>4</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="25">
         <v>5</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="25">
         <v>6</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="25">
         <v>7</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="25">
         <v>8</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="25">
         <v>9</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="45" t="e">
+      <c r="B10" s="26" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="46"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
     </row>
     <row r="11" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="e">
+      <c r="B11" s="21" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="30" t="e">
+      <c r="C11" s="44" t="e">
         <f>MatList_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="24" t="e">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="22" t="e">
         <f>MatList_REMAINSTART</f>
         <v>#NAME?</v>
       </c>
-      <c r="H11" s="24" t="e">
+      <c r="H11" s="22" t="e">
         <f>MatList_SummStart</f>
         <v>#NAME?</v>
       </c>
-      <c r="I11" s="24" t="e">
+      <c r="I11" s="22" t="e">
         <f>MatList_AMOUNTIN</f>
         <v>#NAME?</v>
       </c>
-      <c r="J11" s="24" t="e">
+      <c r="J11" s="22" t="e">
         <f>MatList_SUMMIN</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="24" t="e">
+      <c r="K11" s="22" t="e">
         <f>MatList_AMOUNTOUT</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="24" t="e">
+      <c r="L11" s="22" t="e">
         <f>MatList_SUMMOUT</f>
         <v>#NAME?</v>
       </c>
-      <c r="M11" s="25" t="e">
+      <c r="M11" s="23" t="e">
         <f>MatList_REMAINEND</f>
         <v>#NAME?</v>
       </c>
-      <c r="N11" s="26" t="e">
+      <c r="N11" s="24" t="e">
         <f>MatList_SUMMEND</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50" t="s">
+      <c r="I13" s="56"/>
+      <c r="J13" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50" t="s">
+      <c r="K13" s="56"/>
+      <c r="L13" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="51" t="s">
+      <c r="M13" s="56"/>
+      <c r="N13" s="57" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1562,16 +1560,16 @@
     <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/Oborotka.xlsx
+++ b/SP_Sklad/TempLate/Oborotka.xlsx
@@ -87,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -131,14 +131,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="16"/>
       <name val="Arial"/>
@@ -149,14 +141,6 @@
       <b/>
       <sz val="10"/>
       <color indexed="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="53"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -596,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -608,34 +592,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,26 +615,86 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -678,33 +703,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,39 +713,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,11 +1084,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:N94"/>
+  <dimension ref="B1:N13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1146,21 +1111,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -1178,10 +1143,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17" t="e">
+      <c r="D3" s="6" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
@@ -1197,11 +1162,11 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="19" t="e">
+      <c r="D4" s="8" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
@@ -1217,78 +1182,78 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="e">
+      <c r="D5" s="6" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="38" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="38" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="39"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="31"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="20" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="25">
+      <c r="B9" s="14">
         <v>1</v>
       </c>
       <c r="C9" s="41">
@@ -1297,51 +1262,51 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43"/>
-      <c r="G9" s="25">
+      <c r="G9" s="14">
         <v>3</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="14">
         <v>4</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="14">
         <v>5</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="14">
         <v>6</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="14">
         <v>7</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="14">
         <v>8</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="14">
         <v>9</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="e">
+      <c r="B10" s="15" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="e">
+      <c r="B11" s="10" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
@@ -1352,212 +1317,89 @@
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
       <c r="F11" s="46"/>
-      <c r="G11" s="22" t="e">
+      <c r="G11" s="11" t="e">
         <f>MatList_REMAINSTART</f>
         <v>#NAME?</v>
       </c>
-      <c r="H11" s="22" t="e">
+      <c r="H11" s="11" t="e">
         <f>MatList_SummStart</f>
         <v>#NAME?</v>
       </c>
-      <c r="I11" s="22" t="e">
+      <c r="I11" s="11" t="e">
         <f>MatList_AMOUNTIN</f>
         <v>#NAME?</v>
       </c>
-      <c r="J11" s="22" t="e">
+      <c r="J11" s="11" t="e">
         <f>MatList_SUMMIN</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="22" t="e">
+      <c r="K11" s="11" t="e">
         <f>MatList_AMOUNTOUT</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="22" t="e">
+      <c r="L11" s="11" t="e">
         <f>MatList_SUMMOUT</f>
         <v>#NAME?</v>
       </c>
-      <c r="M11" s="23" t="e">
+      <c r="M11" s="12" t="e">
         <f>MatList_REMAINEND</f>
         <v>#NAME?</v>
       </c>
-      <c r="N11" s="24" t="e">
+      <c r="N11" s="13" t="e">
         <f>MatList_SUMMEND</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="L12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="52"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
     </row>
     <row r="13" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56" t="s">
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56" t="s">
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="56"/>
-      <c r="N13" s="57" t="s">
+      <c r="M13" s="24"/>
+      <c r="N13" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="16" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B12:H12"/>

--- a/SP_Sklad/TempLate/Oborotka.xlsx
+++ b/SP_Sklad/TempLate/Oborotka.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$N$13</definedName>
-    <definedName name="MatList">Лист1!$A$11:$N$12</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$O$13</definedName>
+    <definedName name="MatList">Лист1!$A$11:$O$12</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>sum</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>sum_SummEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Од. </t>
   </si>
 </sst>
 </file>
@@ -499,37 +502,6 @@
       <left style="hair">
         <color indexed="23"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="23"/>
-      </left>
       <right style="hair">
         <color indexed="23"/>
       </right>
@@ -570,6 +542,43 @@
       </right>
       <top style="thin">
         <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="23"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
@@ -627,29 +636,26 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,15 +693,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,6 +710,18 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,7 +1093,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:N13"/>
+  <dimension ref="B1:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -1098,36 +1107,37 @@
     <col min="3" max="3" width="13.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="7" width="9.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1141,8 +1151,9 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1171,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1180,8 +1192,9 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1190,79 +1203,83 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="35" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="36"/>
+      <c r="N7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="36"/>
+      <c r="O7" s="35"/>
     </row>
-    <row r="8" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="9" t="s">
+    <row r="8" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="27"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="N8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="O8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="14">
         <v>1</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="37">
         <v>2</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="14">
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="24">
         <v>3</v>
       </c>
       <c r="H9" s="14">
@@ -1286,8 +1303,11 @@
       <c r="N9" s="14">
         <v>10</v>
       </c>
+      <c r="O9" s="14">
+        <v>11</v>
+      </c>
     </row>
-    <row r="10" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
@@ -1303,63 +1323,70 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="17"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="44" t="e">
+      <c r="C11" s="40" t="e">
         <f>MatList_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="11" t="e">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="46" t="e">
+        <f>MatList_MsrName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H11" s="11" t="e">
         <f>MatList_REMAINSTART</f>
         <v>#NAME?</v>
       </c>
-      <c r="H11" s="11" t="e">
+      <c r="I11" s="11" t="e">
         <f>MatList_SummStart</f>
         <v>#NAME?</v>
       </c>
-      <c r="I11" s="11" t="e">
+      <c r="J11" s="11" t="e">
         <f>MatList_AMOUNTIN</f>
         <v>#NAME?</v>
       </c>
-      <c r="J11" s="11" t="e">
+      <c r="K11" s="11" t="e">
         <f>MatList_SUMMIN</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="11" t="e">
+      <c r="L11" s="11" t="e">
         <f>MatList_AMOUNTOUT</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="11" t="e">
+      <c r="M11" s="11" t="e">
         <f>MatList_SUMMOUT</f>
         <v>#NAME?</v>
       </c>
-      <c r="M11" s="12" t="e">
+      <c r="N11" s="12" t="e">
         <f>MatList_REMAINEND</f>
         <v>#NAME?</v>
       </c>
-      <c r="N11" s="13" t="e">
+      <c r="O11" s="13" t="e">
         <f>MatList_SUMMEND</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+    <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="I12" s="18" t="s">
         <v>0</v>
       </c>
@@ -1372,46 +1399,55 @@
       <c r="L12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
+      <c r="M12" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="22"/>
+      <c r="K13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="22"/>
+      <c r="O13" s="23" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B12:H12"/>
+  <mergeCells count="11">
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B1:O1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
